--- a/biology/Botanique/Rosa_henryi/Rosa_henryi.xlsx
+++ b/biology/Botanique/Rosa_henryi/Rosa_henryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa henryi est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Synstylae, originaire de Chine.
 Il pousse entre 1 700 et 2 000 mètres d'altitude dans les bordures forestières et les broussailles, dans les vallées et les terres agricoles.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est un arbrisseau grimpant, de 3 à 8 mètres de haut. Les tiges portent des aiguillons recourbés, qui sont absents des rameaux florilèges.
-Les feuilles, glabres ou faiblement pubescentes, ont généralement cinq folioles elliptiques à base arrondie de 4,5 à 8 cm de long[1].
+Les feuilles, glabres ou faiblement pubescentes, ont généralement cinq folioles elliptiques à base arrondie de 4,5 à 8 cm de long.
 Les fleurs, simples, blanches, odorantes, de 3 à 4 cm de diamètre, sont regroupées par 8 à 15 en corymbes ombelliformes. La floraison, abondante, se produit du milieu à la fin de l'été.
 Les fruits sont rouge brunâtre.
 </t>
@@ -546,7 +560,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa henrii est cultivé comme plante ornementale pour la beauté de ses fleurs.
 </t>
